--- a/ResultadoEleicoesDistritos/BRAGANÇA_VIMIOSO.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGANÇA_VIMIOSO.xlsx
@@ -597,64 +597,64 @@
         <v>1553</v>
       </c>
       <c r="H2" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I2" t="n">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="J2" t="n">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="M2" t="n">
+        <v>16</v>
+      </c>
+      <c r="N2" t="n">
+        <v>97</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>10</v>
       </c>
-      <c r="N2" t="n">
-        <v>106</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>11</v>
-      </c>
       <c r="S2" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="T2" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="U2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>980</v>
+        <v>959</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AA2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
